--- a/Particles_7h_30m.xlsx
+++ b/Particles_7h_30m.xlsx
@@ -454,7 +454,7 @@
         <v>557237.123703704</v>
       </c>
       <c r="L2">
-        <v>36.8320894945478</v>
+        <v>76.35950281734526</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         <v>438578.904938272</v>
       </c>
       <c r="L3">
-        <v>28.80248777579006</v>
+        <v>59.44273301488884</v>
       </c>
     </row>
     <row r="4">
@@ -530,7 +530,7 @@
         <v>167069.596419753</v>
       </c>
       <c r="L4">
-        <v>10.80922654692774</v>
+        <v>22.07130013017187</v>
       </c>
     </row>
     <row r="5">
@@ -568,7 +568,7 @@
         <v>522636.278641975</v>
       </c>
       <c r="L5">
-        <v>34.48022347786414</v>
+        <v>71.38985256193622</v>
       </c>
     </row>
     <row r="6">
@@ -606,7 +606,7 @@
         <v>947929.16098765</v>
       </c>
       <c r="L6">
-        <v>63.98363157319731</v>
+        <v>134.570740469839</v>
       </c>
     </row>
     <row r="7">
@@ -644,7 +644,7 @@
         <v>1860039.12074074</v>
       </c>
       <c r="L7">
-        <v>131.6316953669907</v>
+        <v>285.4670742935533</v>
       </c>
     </row>
     <row r="8">
@@ -682,7 +682,7 @@
         <v>1681789.45938272</v>
       </c>
       <c r="L8">
-        <v>117.9425749381339</v>
+        <v>254.3272369351718</v>
       </c>
     </row>
     <row r="9">
@@ -720,7 +720,7 @@
         <v>919430.02876543</v>
       </c>
       <c r="L9">
-        <v>61.96605025026128</v>
+        <v>130.1942406512864</v>
       </c>
     </row>
     <row r="10">
@@ -758,7 +758,7 @@
         <v>1594845.50901235</v>
       </c>
       <c r="L10">
-        <v>111.3481600561481</v>
+        <v>239.4292925055303</v>
       </c>
     </row>
     <row r="11">
@@ -796,7 +796,7 @@
         <v>44604.53308641999</v>
       </c>
       <c r="L11">
-        <v>2.866283159112631</v>
+        <v>5.823697603607441</v>
       </c>
     </row>
     <row r="12">
@@ -834,7 +834,7 @@
         <v>819359.737777778</v>
       </c>
       <c r="L12">
-        <v>54.92775030346577</v>
+        <v>114.9892077053389</v>
       </c>
     </row>
     <row r="13">
@@ -872,7 +872,7 @@
         <v>923258.54765432</v>
       </c>
       <c r="L13">
-        <v>62.23674965439501</v>
+        <v>130.7809792792692</v>
       </c>
     </row>
     <row r="14">
@@ -910,7 +910,7 @@
         <v>1766100.39938272</v>
       </c>
       <c r="L14">
-        <v>124.3890471756411</v>
+        <v>268.9562279529851</v>
       </c>
     </row>
     <row r="15">
@@ -948,7 +948,7 @@
         <v>2333896.52691358</v>
       </c>
       <c r="L15">
-        <v>169.1305240742068</v>
+        <v>372.148609737807</v>
       </c>
     </row>
     <row r="16">
@@ -986,7 +986,7 @@
         <v>878554.32876543</v>
       </c>
       <c r="L16">
-        <v>59.08244235916808</v>
+        <v>123.9529070219429</v>
       </c>
     </row>
     <row r="17">
@@ -1024,7 +1024,7 @@
         <v>1939844.48876543</v>
       </c>
       <c r="L17">
-        <v>137.8343746863922</v>
+        <v>299.6688011437973</v>
       </c>
     </row>
     <row r="18">
@@ -1062,7 +1062,7 @@
         <v>1186229.63160494</v>
       </c>
       <c r="L18">
-        <v>81.08191893482452</v>
+        <v>171.9679682335298</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1100,7 @@
         <v>194757.489012346</v>
       </c>
       <c r="L19">
-        <v>12.6199358147935</v>
+        <v>25.79715622322807</v>
       </c>
     </row>
     <row r="20">
@@ -1138,7 +1138,7 @@
         <v>1465341.23419753</v>
       </c>
       <c r="L20">
-        <v>101.6261744955744</v>
+        <v>217.5923390955899</v>
       </c>
     </row>
     <row r="21">
@@ -1176,7 +1176,7 @@
         <v>2159311.25160494</v>
       </c>
       <c r="L21">
-        <v>155.1273621443647</v>
+        <v>339.5527912347452</v>
       </c>
     </row>
     <row r="22">
@@ -1214,7 +1214,7 @@
         <v>4648415.17358025</v>
       </c>
       <c r="L22">
-        <v>375.4272452256004</v>
+        <v>876.9839495251879</v>
       </c>
     </row>
     <row r="23">
@@ -1252,7 +1252,7 @@
         <v>1611906.22432099</v>
       </c>
       <c r="L23">
-        <v>112.6378853874525</v>
+        <v>242.3376191129086</v>
       </c>
     </row>
     <row r="24">
@@ -1290,7 +1290,7 @@
         <v>6275857.70037037</v>
       </c>
       <c r="L24">
-        <v>543.4826862966843</v>
+        <v>1312.91774127441</v>
       </c>
     </row>
     <row r="25">
@@ -1328,7 +1328,7 @@
         <v>1051666.36888889</v>
       </c>
       <c r="L25">
-        <v>71.37683195873306</v>
+        <v>150.6743751068792</v>
       </c>
     </row>
     <row r="26">
@@ -1366,7 +1366,7 @@
         <v>29200.24296296301</v>
       </c>
       <c r="L26">
-        <v>1.874792339193838</v>
+        <v>3.806792081051583</v>
       </c>
     </row>
     <row r="27">
@@ -1404,7 +1404,7 @@
         <v>1342977.54839506</v>
       </c>
       <c r="L27">
-        <v>92.55072632546649</v>
+        <v>197.348370628482</v>
       </c>
     </row>
     <row r="28">
@@ -1442,7 +1442,7 @@
         <v>758206.2876543209</v>
       </c>
       <c r="L28">
-        <v>50.66195627572116</v>
+        <v>105.8217622910002</v>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1480,7 @@
         <v>899689.0535802499</v>
       </c>
       <c r="L29">
-        <v>60.57191214387269</v>
+        <v>127.1747147267599</v>
       </c>
     </row>
     <row r="30">
@@ -1518,7 +1518,7 @@
         <v>5699327.59691358</v>
       </c>
       <c r="L30">
-        <v>481.776070141293</v>
+        <v>1150.839656017357</v>
       </c>
     </row>
     <row r="31">
@@ -1556,7 +1556,7 @@
         <v>1176289.09925926</v>
       </c>
       <c r="L31">
-        <v>80.36053818397321</v>
+        <v>170.3793221920602</v>
       </c>
     </row>
     <row r="32">
@@ -1594,7 +1594,7 @@
         <v>1096497.72987654</v>
       </c>
       <c r="L32">
-        <v>74.59577605385971</v>
+        <v>157.7178226518502</v>
       </c>
     </row>
     <row r="33">
@@ -1632,7 +1632,7 @@
         <v>1571531.23617284</v>
       </c>
       <c r="L33">
-        <v>109.589064116846</v>
+        <v>235.4668062819579</v>
       </c>
     </row>
     <row r="34">
@@ -1670,7 +1670,7 @@
         <v>1242195.08197531</v>
       </c>
       <c r="L34">
-        <v>85.15653406335326</v>
+        <v>180.9586342624379</v>
       </c>
     </row>
     <row r="35">
@@ -1708,7 +1708,7 @@
         <v>706239.13</v>
       </c>
       <c r="L35">
-        <v>47.05803197884422</v>
+        <v>98.10561110433864</v>
       </c>
     </row>
   </sheetData>
